--- a/TM/taskstep.xlsx
+++ b/TM/taskstep.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/39017d87bf4db9e9/ドキュメント/Project/00_WORK/Utility/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taku\Documents\00_ROOT\00_WORK\util\TM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="375" documentId="8_{E7FF851F-2C05-47C3-931C-145EB2CE4DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4627F3B4-71CC-4D03-A34D-E9AD61105BB1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90CB15B4-3BE5-4A50-B4BB-8AEB82D822FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4155" yWindow="1110" windowWidth="21120" windowHeight="10545" xr2:uid="{3D900050-CBC5-42E3-B7D9-D4B89DC087B6}"/>
+    <workbookView xWindow="1080" yWindow="600" windowWidth="17820" windowHeight="10545" activeTab="1" xr2:uid="{3D900050-CBC5-42E3-B7D9-D4B89DC087B6}"/>
   </bookViews>
   <sheets>
     <sheet name="TASK ----------------" sheetId="2" r:id="rId1"/>
@@ -87,7 +87,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,15 +104,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="PlemolJP HS"/>
@@ -123,14 +114,6 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="PlemolJP HS"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="PlemolJP HS"/>
       <family val="3"/>
       <charset val="128"/>
@@ -279,84 +262,414 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="52">
+  <dxfs count="34">
+    <dxf>
+      <numFmt numFmtId="176" formatCode="\&gt;@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="PlemolJP HS"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="PlemolJP HS"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="PlemolJP HS"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="PlemolJP HS"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="PlemolJP HS"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="PlemolJP HS"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="PlemolJP HS"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -396,156 +709,27 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="184" formatCode="\&gt;@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="184" formatCode="\&gt;@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -568,9 +752,16 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -603,61 +794,16 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="184" formatCode="\&gt;@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
         <name val="PlemolJP HS"/>
         <family val="3"/>
         <charset val="128"/>
@@ -669,17 +815,28 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <name val="PlemolJP HS"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -706,141 +863,6 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="PlemolJP HS"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="PlemolJP HS"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="PlemolJP HS"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -859,6 +881,20 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -877,6 +913,25 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -913,172 +968,6 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <name val="PlemolJP HS"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <name val="PlemolJP HS"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="PlemolJP HS"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="PlemolJP HS"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="PlemolJP HS"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <fill>
@@ -1110,34 +999,11 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <border>
@@ -1161,29 +1027,15 @@
         </horizontal>
       </border>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="テーブル スタイル 1" pivot="0" count="2" xr9:uid="{65EA3C28-2BC3-4DC5-9DBA-801C18B218E2}">
-      <tableStyleElement type="wholeTable" dxfId="49"/>
-      <tableStyleElement type="headerRow" dxfId="50"/>
+      <tableStyleElement type="wholeTable" dxfId="33"/>
+      <tableStyleElement type="headerRow" dxfId="32"/>
     </tableStyle>
     <tableStyle name="テーブル スタイル 2" pivot="0" count="2" xr9:uid="{DDB51451-5503-46F8-B4E6-36F53E1FC47F}">
-      <tableStyleElement type="wholeTable" dxfId="45"/>
-      <tableStyleElement type="headerRow" dxfId="44"/>
+      <tableStyleElement type="wholeTable" dxfId="31"/>
+      <tableStyleElement type="headerRow" dxfId="30"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1205,7 +1057,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65787BFA-3AA2-4B35-BA10-9E6F1C74325A}" name="テーブル1" displayName="テーブル1" ref="C3:G10" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35" tableBorderDxfId="51">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65787BFA-3AA2-4B35-BA10-9E6F1C74325A}" name="テーブル1" displayName="テーブル1" ref="C3:G10" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28" tableBorderDxfId="27">
   <autoFilter ref="C3:G10" xr:uid="{65787BFA-3AA2-4B35-BA10-9E6F1C74325A}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -1214,19 +1066,19 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{5C2F6A98-7CFD-4647-B1FA-32A3A2FA408E}" name="category" dataDxfId="40"/>
-    <tableColumn id="2" xr3:uid="{A89ED273-00AF-4EB4-884D-7CE03B9902B7}" name="task" dataDxfId="39"/>
-    <tableColumn id="5" xr3:uid="{65FF9F56-56B3-47C7-9EE4-B25D04FC9CEA}" name="st" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{23EA3F9A-D763-4C5F-B1EB-C981DFAC4C82}" name="note" dataDxfId="38"/>
-    <tableColumn id="4" xr3:uid="{FFC6DC65-F27E-4BFC-8AF1-C2EFAC48D411}" name="link" dataDxfId="37"/>
+    <tableColumn id="1" xr3:uid="{5C2F6A98-7CFD-4647-B1FA-32A3A2FA408E}" name="category" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{A89ED273-00AF-4EB4-884D-7CE03B9902B7}" name="task" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{65FF9F56-56B3-47C7-9EE4-B25D04FC9CEA}" name="st" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{23EA3F9A-D763-4C5F-B1EB-C981DFAC4C82}" name="note" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{FFC6DC65-F27E-4BFC-8AF1-C2EFAC48D411}" name="link" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="テーブル スタイル 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B5315580-7224-4878-946C-6DCDF0C12D00}" name="テーブル2" displayName="テーブル2" ref="C4:J15" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41" headerRowBorderDxfId="47" tableBorderDxfId="48" totalsRowBorderDxfId="46">
-  <autoFilter ref="C4:J15" xr:uid="{B5315580-7224-4878-946C-6DCDF0C12D00}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B5315580-7224-4878-946C-6DCDF0C12D00}" name="テーブル2" displayName="テーブル2" ref="C4:J17" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18" totalsRowBorderDxfId="17">
+  <autoFilter ref="C4:J17" xr:uid="{B5315580-7224-4878-946C-6DCDF0C12D00}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1237,16 +1089,16 @@
     <filterColumn colId="7" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{BDF6DC62-C3F1-4CA9-BB42-782E5B95D9CA}" name="category" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{BDF6DC62-C3F1-4CA9-BB42-782E5B95D9CA}" name="category" dataDxfId="16">
       <calculatedColumnFormula>IF(テーブル2[[#This Row],[task]]&lt;&gt;"",_xlfn.XLOOKUP(D5,テーブル1[task],テーブル1[category]),"-")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{C7DAE514-5503-4B2F-9BA4-3F0C2E70EE25}" name="task" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{B0579E0E-0E6B-49C6-B01D-5641064C5BE4}" name="step" dataDxfId="34"/>
-    <tableColumn id="4" xr3:uid="{0F246129-98CF-43D8-81BC-E7AFB6C1A513}" name="st" dataDxfId="43"/>
-    <tableColumn id="6" xr3:uid="{EC524E45-6650-4DCF-A353-F1E128A50D3D}" name="A" dataDxfId="33"/>
-    <tableColumn id="7" xr3:uid="{6FD7D58A-FBE0-4DB5-8C58-EFC14C1D2D53}" name="B" dataDxfId="32"/>
-    <tableColumn id="8" xr3:uid="{3BC5C5B6-3D5F-4802-8B8F-082B03B8FD93}" name="C" dataDxfId="31"/>
-    <tableColumn id="5" xr3:uid="{3A48006A-0A17-4767-9457-A2C99897A3F5}" name="note" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{C7DAE514-5503-4B2F-9BA4-3F0C2E70EE25}" name="task" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{B0579E0E-0E6B-49C6-B01D-5641064C5BE4}" name="step" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{0F246129-98CF-43D8-81BC-E7AFB6C1A513}" name="st" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{EC524E45-6650-4DCF-A353-F1E128A50D3D}" name="A" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{6FD7D58A-FBE0-4DB5-8C58-EFC14C1D2D53}" name="B" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{3BC5C5B6-3D5F-4802-8B8F-082B03B8FD93}" name="C" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{3A48006A-0A17-4767-9457-A2C99897A3F5}" name="note" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="テーブル スタイル 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1571,108 +1423,87 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90A0E502-0980-4FC8-94E6-1D92CCB4D4E0}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.58203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="1.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.4140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.375" style="2" customWidth="1"/>
     <col min="4" max="4" width="25" style="2" customWidth="1"/>
     <col min="5" max="5" width="4.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="25.9140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="25.875" style="2" customWidth="1"/>
     <col min="7" max="7" width="7.5" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.6640625" style="2"/>
+    <col min="8" max="16384" width="8.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:7" ht="17.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="3:7" ht="18" x14ac:dyDescent="0.4">
       <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="3:7" x14ac:dyDescent="0.4">
       <c r="C3" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="3:7" x14ac:dyDescent="0.4">
       <c r="C4" s="7"/>
       <c r="D4" s="8"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="10"/>
-    </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.4">
       <c r="C5" s="7"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-    </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.4">
       <c r="C6" s="7"/>
       <c r="D6" s="8"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-    </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.4">
       <c r="C7" s="7"/>
       <c r="D7" s="8"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-    </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.4">
       <c r="C8" s="7"/>
       <c r="D8" s="8"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-    </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.4">
       <c r="C9" s="7"/>
       <c r="D9" s="8"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-    </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="10" spans="3:7" x14ac:dyDescent="0.4">
       <c r="C10" s="7"/>
       <c r="D10" s="8"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="D4:D10">
-    <cfRule type="expression" dxfId="8" priority="4">
-      <formula>$E4="n2"</formula>
+    <cfRule type="expression" dxfId="8" priority="1">
+      <formula>$E4="t"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="3">
+    <cfRule type="expression" dxfId="7" priority="2">
+      <formula>$E4="d"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="3">
       <formula>$E4="n1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2">
-      <formula>$E4="d"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="1">
-      <formula>$E4="t"</formula>
+    <cfRule type="expression" dxfId="5" priority="4">
+      <formula>$E4="n2"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1684,42 +1515,47 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F349D46-0837-468D-9EB2-49A3001B747A}">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.83203125" style="18" customWidth="1"/>
+    <col min="1" max="1" width="2.125" style="13" customWidth="1"/>
     <col min="2" max="2" width="1.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.375" style="2" customWidth="1"/>
     <col min="4" max="4" width="22" style="2" customWidth="1"/>
-    <col min="5" max="5" width="30.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="3.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="28.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="3.375" style="2" customWidth="1"/>
     <col min="7" max="9" width="3.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="37.33203125" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="8.6640625" style="2"/>
+    <col min="10" max="10" width="37.375" style="2" customWidth="1"/>
+    <col min="11" max="13" width="9" customWidth="1"/>
+    <col min="14" max="16384" width="8.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="10" customFormat="1" ht="17.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="18"/>
-      <c r="C1" s="14" t="s">
+    <row r="1" spans="3:13" ht="18" x14ac:dyDescent="0.4">
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" s="10" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="18"/>
-      <c r="C2" s="14"/>
-    </row>
-    <row r="3" spans="1:13" ht="14" x14ac:dyDescent="0.55000000000000004">
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="3:13" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C2" s="3"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="3:13" ht="14.25" x14ac:dyDescent="0.4">
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:13" ht="14" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="3:13" ht="14.25" x14ac:dyDescent="0.4">
       <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
@@ -1748,30 +1584,30 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="1:13" ht="14" x14ac:dyDescent="0.55000000000000004">
-      <c r="C5" s="20" t="str">
+    <row r="5" spans="3:13" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="C5" s="15" t="str">
         <f>IF(テーブル2[[#This Row],[task]]&lt;&gt;"",_xlfn.XLOOKUP(D5,テーブル1[task],テーブル1[category]),"-")</f>
         <v>-</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="5"/>
+      <c r="E5" s="17"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
-      <c r="J5" s="6"/>
+      <c r="J5" s="16"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="1:13" ht="14" x14ac:dyDescent="0.55000000000000004">
-      <c r="C6" s="12" t="str">
+    <row r="6" spans="3:13" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="C6" s="15" t="str">
         <f>IF(テーブル2[[#This Row],[task]]&lt;&gt;"",_xlfn.XLOOKUP(D6,テーブル1[task],テーブル1[category]),"-")</f>
         <v>-</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
@@ -1780,164 +1616,190 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="1:13" ht="14" x14ac:dyDescent="0.55000000000000004">
-      <c r="C7" s="12" t="str">
+    <row r="7" spans="3:13" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="C7" s="10" t="str">
         <f>IF(テーブル2[[#This Row],[task]]&lt;&gt;"",_xlfn.XLOOKUP(D7,テーブル1[task],テーブル1[category]),"-")</f>
         <v>-</v>
       </c>
       <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
+      <c r="E7" s="18"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="16"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="14"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="1:13" ht="14" x14ac:dyDescent="0.55000000000000004">
-      <c r="C8" s="12" t="str">
+    <row r="8" spans="3:13" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="C8" s="10" t="str">
         <f>IF(テーブル2[[#This Row],[task]]&lt;&gt;"",_xlfn.XLOOKUP(D8,テーブル1[task],テーブル1[category]),"-")</f>
         <v>-</v>
       </c>
       <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
+      <c r="E8" s="18"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
-      <c r="J8" s="16"/>
+      <c r="J8" s="11"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="1:13" ht="14" x14ac:dyDescent="0.55000000000000004">
-      <c r="C9" s="13" t="str">
+    <row r="9" spans="3:13" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="C9" s="10" t="str">
         <f>IF(テーブル2[[#This Row],[task]]&lt;&gt;"",_xlfn.XLOOKUP(D9,テーブル1[task],テーブル1[category]),"-")</f>
         <v>-</v>
       </c>
       <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
+      <c r="E9" s="18"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
-      <c r="J9" s="16"/>
+      <c r="J9" s="11"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="1:13" ht="14" x14ac:dyDescent="0.55000000000000004">
-      <c r="C10" s="13" t="str">
+    <row r="10" spans="3:13" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="C10" s="10" t="str">
         <f>IF(テーブル2[[#This Row],[task]]&lt;&gt;"",_xlfn.XLOOKUP(D10,テーブル1[task],テーブル1[category]),"-")</f>
         <v>-</v>
       </c>
       <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
+      <c r="E10" s="18"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
-      <c r="J10" s="16"/>
+      <c r="J10" s="11"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
     </row>
-    <row r="11" spans="1:13" ht="14" x14ac:dyDescent="0.55000000000000004">
-      <c r="C11" s="13" t="str">
+    <row r="11" spans="3:13" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="C11" s="10" t="str">
         <f>IF(テーブル2[[#This Row],[task]]&lt;&gt;"",_xlfn.XLOOKUP(D11,テーブル1[task],テーブル1[category]),"-")</f>
         <v>-</v>
       </c>
       <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
+      <c r="E11" s="18"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
-      <c r="J11" s="16"/>
+      <c r="J11" s="11"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="1:13" ht="14" x14ac:dyDescent="0.55000000000000004">
-      <c r="C12" s="13" t="str">
+    <row r="12" spans="3:13" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="C12" s="10" t="str">
         <f>IF(テーブル2[[#This Row],[task]]&lt;&gt;"",_xlfn.XLOOKUP(D12,テーブル1[task],テーブル1[category]),"-")</f>
         <v>-</v>
       </c>
       <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
+      <c r="E12" s="18"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
-      <c r="J12" s="19"/>
+      <c r="J12" s="11"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="1:13" ht="14" x14ac:dyDescent="0.55000000000000004">
-      <c r="C13" s="13" t="str">
+    <row r="13" spans="3:13" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="C13" s="10" t="str">
         <f>IF(テーブル2[[#This Row],[task]]&lt;&gt;"",_xlfn.XLOOKUP(D13,テーブル1[task],テーブル1[category]),"-")</f>
         <v>-</v>
       </c>
       <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
+      <c r="E13" s="18"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
-      <c r="J13" s="16"/>
+      <c r="J13" s="11"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="C14" s="12" t="str">
+    <row r="14" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="C14" s="10" t="str">
         <f>IF(テーブル2[[#This Row],[task]]&lt;&gt;"",_xlfn.XLOOKUP(D14,テーブル1[task],テーブル1[category]),"-")</f>
         <v>-</v>
       </c>
       <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
+      <c r="E14" s="18"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
-      <c r="J14" s="16"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="C15" s="12" t="str">
+      <c r="J14" s="14"/>
+    </row>
+    <row r="15" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="C15" s="10" t="str">
         <f>IF(テーブル2[[#This Row],[task]]&lt;&gt;"",_xlfn.XLOOKUP(D15,テーブル1[task],テーブル1[category]),"-")</f>
         <v>-</v>
       </c>
       <c r="D15" s="8"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="17"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="11"/>
+    </row>
+    <row r="16" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="C16" s="10" t="str">
+        <f>IF(テーブル2[[#This Row],[task]]&lt;&gt;"",_xlfn.XLOOKUP(D16,テーブル1[task],テーブル1[category]),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="11"/>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="C17" s="10" t="str">
+        <f>IF(テーブル2[[#This Row],[task]]&lt;&gt;"",_xlfn.XLOOKUP(D17,テーブル1[task],テーブル1[category]),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="D5:D15">
-    <cfRule type="expression" dxfId="22" priority="5">
+  <conditionalFormatting sqref="D5:D17">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>INDIRECT(ADDRESS(ROW(),COLUMN()))=INDIRECT(ADDRESS(ROW()-1,COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5:E15">
-    <cfRule type="expression" dxfId="21" priority="2">
+  <conditionalFormatting sqref="E5:E17">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>$F5="d"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>$F5="n2"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="4">
+    <cfRule type="expression" dxfId="1" priority="4">
       <formula>$F5="n1"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5:I15">
-    <cfRule type="beginsWith" dxfId="19" priority="1" operator="beginsWith" text=" ">
+  <conditionalFormatting sqref="G5:I17">
+    <cfRule type="beginsWith" dxfId="0" priority="1" operator="beginsWith" text=" ">
       <formula>LEFT(G5,LEN(" "))=" "</formula>
     </cfRule>
   </conditionalFormatting>
